--- a/Projeto/Modelo Detalhes Bloco 2.xlsx
+++ b/Projeto/Modelo Detalhes Bloco 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slima\Desktop\vis_fit_v1\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D9463-1DF5-4D32-AEC0-E1239ACD71EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6019F445-B30B-4400-8D44-2A80D59E66E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1181493A-6A1B-4BE2-AEFC-E13FA358AD46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{1181493A-6A1B-4BE2-AEFC-E13FA358AD46}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="5" r:id="rId1"/>
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8116,9 +8116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6B42FD-8735-4A3F-9914-7D20A766CC87}">
   <dimension ref="A1:M577"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22140,8 +22140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD9DEE3-2057-42E1-9AD5-DC5593E85CB9}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23636,6 +23636,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23643,8 +23644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C29CE8-4EBC-4E10-8D94-DB13568D489C}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25430,6 +25431,7 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25437,8 +25439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12C5DA5-82FF-4D29-B4B8-A91BD65F6F0D}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25460,8 +25462,8 @@
         <v>81</v>
       </c>
       <c r="B2" t="str">
-        <f>_xlfn.CONCAT(A2,",")</f>
-        <v>omega_3_g,</v>
+        <f>_xlfn.CONCAT("f.",A2,",")</f>
+        <v>f.omega_3_g,</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -25469,8 +25471,8 @@
         <v>88</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B49" si="0">_xlfn.CONCAT(A3,",")</f>
-        <v>acucares_totais_g,</v>
+        <f t="shared" ref="B3:B49" si="0">_xlfn.CONCAT("f.",A3,",")</f>
+        <v>f.acucares_totais_g,</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -25479,7 +25481,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>acucares_naturais_g,</v>
+        <v>f.acucares_naturais_g,</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -25488,7 +25490,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>acucares_adicionados_g,</v>
+        <v>f.acucares_adicionados_g,</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -25497,7 +25499,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>indice_glicemico,</v>
+        <v>f.indice_glicemico,</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -25506,7 +25508,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>carga_glicemica_g,</v>
+        <v>f.carga_glicemica_g,</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -25515,7 +25517,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>sodio_mg,</v>
+        <v>f.sodio_mg,</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -25524,7 +25526,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>potassio_mg,</v>
+        <v>f.potassio_mg,</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -25533,7 +25535,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>colesterol_mg,</v>
+        <v>f.colesterol_mg,</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -25542,7 +25544,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>calcio_mg,</v>
+        <v>f.calcio_mg,</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -25551,7 +25553,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>ferro_total_mg,</v>
+        <v>f.ferro_total_mg,</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -25560,7 +25562,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>ferro_heme_mg,</v>
+        <v>f.ferro_heme_mg,</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -25569,7 +25571,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>ferro_n_heme_mg,</v>
+        <v>f.ferro_n_heme_mg,</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -25578,7 +25580,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_a_mcg,</v>
+        <v>f.vitamina_a_mcg,</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -25587,7 +25589,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_c_mg,</v>
+        <v>f.vitamina_c_mg,</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -25596,7 +25598,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_d_mcg,</v>
+        <v>f.vitamina_d_mcg,</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -25605,7 +25607,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_b12_mcg,</v>
+        <v>f.vitamina_b12_mcg,</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -25614,7 +25616,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_e_mg,</v>
+        <v>f.vitamina_e_mg,</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -25623,7 +25625,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_b1_mg,</v>
+        <v>f.vitamina_b1_mg,</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -25632,7 +25634,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_b2_mg,</v>
+        <v>f.vitamina_b2_mg,</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -25641,7 +25643,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_b3_mg,</v>
+        <v>f.vitamina_b3_mg,</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -25650,7 +25652,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_b5_mg,</v>
+        <v>f.vitamina_b5_mg,</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -25659,7 +25661,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_b6_mg,</v>
+        <v>f.vitamina_b6_mg,</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -25668,7 +25670,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_b7_mcg,</v>
+        <v>f.vitamina_b7_mcg,</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -25677,7 +25679,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>vitamina_k_mcg,</v>
+        <v>f.vitamina_k_mcg,</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -25686,7 +25688,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>cloro_mg,</v>
+        <v>f.cloro_mg,</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -25695,7 +25697,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>magnesio_mg,</v>
+        <v>f.magnesio_mg,</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -25704,7 +25706,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>zinco_mg,</v>
+        <v>f.zinco_mg,</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -25713,7 +25715,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>cobre_mg,</v>
+        <v>f.cobre_mg,</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -25722,7 +25724,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>manganes_mg,</v>
+        <v>f.manganes_mg,</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -25731,7 +25733,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>selenio_mcg,</v>
+        <v>f.selenio_mcg,</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -25740,7 +25742,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>iodo_mcg,</v>
+        <v>f.iodo_mcg,</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -25749,7 +25751,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>betacaroteno_mcg,</v>
+        <v>f.betacaroteno_mcg,</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -25758,7 +25760,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>licopeno_mcg,</v>
+        <v>f.licopeno_mcg,</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -25767,7 +25769,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>luteina_zeaxantina_mcg,</v>
+        <v>f.luteina_zeaxantina_mcg,</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -25776,7 +25778,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>omega_6_g,</v>
+        <v>f.omega_6_g,</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -25785,7 +25787,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>om6_x_om3,</v>
+        <v>f.om6_x_om3,</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -25794,7 +25796,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>fitosterol_mg,</v>
+        <v>f.fitosterol_mg,</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -25803,7 +25805,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>carboidratos_liquidos_g,</v>
+        <v>f.carboidratos_liquidos_g,</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -25812,7 +25814,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>poliois_g,</v>
+        <v>f.poliois_g,</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -25821,7 +25823,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>perfil_aminoacidos_ess_mg,</v>
+        <v>f.perfil_aminoacidos_ess_mg,</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -25830,7 +25832,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>indice_quality_proteinas_pdcaas,</v>
+        <v>f.indice_quality_proteinas_pdcaas,</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -25839,7 +25841,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>pral_mEq,</v>
+        <v>f.pral_mEq,</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -25848,7 +25850,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>acido_folico_mcg,</v>
+        <v>f.acido_folico_mcg,</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -25857,7 +25859,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>polifenol_total_mg,</v>
+        <v>f.polifenol_total_mg,</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -25866,7 +25868,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>carga_antioxidante_orac,</v>
+        <v>f.carga_antioxidante_orac,</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -25875,7 +25877,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>teor_alcool_prcent,</v>
+        <v>f.teor_alcool_prcent,</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -25884,11 +25886,12 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>teor_agua_g,</v>
+        <v>f.teor_agua_g,</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25896,8 +25899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD5262D-8653-4767-A1F7-697794446171}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
